--- a/DTT_Assessment_Hour_Log.xlsx
+++ b/DTT_Assessment_Hour_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Downloads\DTT Assessment - Unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Maze_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154BEBF-913A-47A2-866E-E49A24BB406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2091E0-E929-4DEA-8573-E2E8A18196AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-7548" windowWidth="17496" windowHeight="30936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Subject</t>
   </si>
@@ -105,6 +105,45 @@
   <si>
     <t>Eventhough having a lack of experience building user interface, tried to make a "good" looking UI and make it work properly. The right side (as shown on the figma sketch) is pretty much done, ignoring the different algorithms and shapes.</t>
   </si>
+  <si>
+    <t>Mesh Generation</t>
+  </si>
+  <si>
+    <t>The whole maze will now be visualised with use of meshes. This reduces the match amount, thus optimises the render time and FPS. Because the meshes have a vertices cap, I made use of object pooling to create and use multiple mesh objects without the cost of any performance. The mesh generation is still unoptimized and is de bottleneck in the maze generation process.</t>
+  </si>
+  <si>
+    <t>Revisiting the UI + mesh flickering bug</t>
+  </si>
+  <si>
+    <t>Found out the UI didn't scale properly and the mesh started to flicker if the user is looking at it from certain angles. Fixed both problems.</t>
+  </si>
+  <si>
+    <t>Added gameplay</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Besides being able to generate mazes, the user is now able to play their own mazes! A player will be spawned, which the user will have to navigate towards the flag to complete their maze. While adding this feature, i found out there were some little problems while creating the maze, which needs to be revisited if development continues, but are not a problem in the short run.</t>
+  </si>
+  <si>
+    <t>Minor subtle user experience features</t>
+  </si>
+  <si>
+    <t>Added some small details. The menus close when gameplay mode is entered and open when gameplay mode is exited. The player is unable to enter playmode when there is no maze generated. Button feedback and player movement.</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/file/mADta51IqBTLna8iW4PIf0/Untitled?node-id=0%3A1</t>
+  </si>
+  <si>
+    <t>https://flatuicolors.com/palette/gb</t>
+  </si>
+  <si>
+    <t>Color pallete:</t>
+  </si>
+  <si>
+    <t>Figma sketch:</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +151,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -407,7 +446,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -443,6 +482,11 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,11 +499,12 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1720,7 +1765,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1734,24 +1779,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1769,11 +1814,11 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="16">
@@ -1785,11 +1830,11 @@
       <c r="E4" s="14"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="16">
@@ -1801,11 +1846,11 @@
       <c r="E5" s="14"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="19">
         <v>2.5</v>
       </c>
       <c r="C6" s="16">
@@ -1817,11 +1862,11 @@
       <c r="E6" s="14"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="16">
@@ -1833,12 +1878,12 @@
       <c r="E7" s="14"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23">
-        <v>3</v>
+      <c r="B8" s="19">
+        <v>2</v>
       </c>
       <c r="C8" s="16">
         <v>44735</v>
@@ -1849,169 +1894,205 @@
       <c r="E8" s="14"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+    <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>44739</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44741</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14"/>
+    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="14"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="14"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="14"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="14"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="14"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="14"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="14"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="14"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="14"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="14"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="14"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="14"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="14"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="14"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="3"/>
@@ -2021,9 +2102,9 @@
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="20">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2039,16 +2120,24 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
